--- a/assets/membership_template.xlsx
+++ b/assets/membership_template.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="10515" windowHeight="4695"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MEMBERSHIP" sheetId="1" r:id="rId1"/>
+    <sheet name="CELLS" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -66,6 +79,12 @@
     <t>EMPLOYER-ADDRESS</t>
   </si>
   <si>
+    <t>FAMILY-POSITION</t>
+  </si>
+  <si>
+    <t>CELL</t>
+  </si>
+  <si>
     <t>KENNETH</t>
   </si>
   <si>
@@ -100,18 +119,103 @@
   </si>
   <si>
     <t>IKEJA, LAGOS</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>CHARIS</t>
+  </si>
+  <si>
+    <t>ADEAGBO</t>
+  </si>
+  <si>
+    <t>TOYOSI</t>
+  </si>
+  <si>
+    <t>HANNAH</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>BROTHER</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>DIPLOMAT</t>
+  </si>
+  <si>
+    <t>SAMUEK</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>AKINOLA</t>
+  </si>
+  <si>
+    <t>SAMMY@MAIL.COM</t>
+  </si>
+  <si>
+    <t>0801234523</t>
+  </si>
+  <si>
+    <t>IKORODU LAHOS</t>
+  </si>
+  <si>
+    <t>SISTER</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>AGAPE</t>
+  </si>
+  <si>
+    <t>TEENS</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>PHRONESIS</t>
+  </si>
+  <si>
+    <t>PROFESSIONAL</t>
+  </si>
+  <si>
+    <t>VICTORY</t>
+  </si>
+  <si>
+    <t>PEARL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,7 +223,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,19 +231,341 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,22 +573,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -453,147 +1167,256 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4296875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.4296875" customWidth="1"/>
+    <col min="4" max="4" width="23.4296875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="11.859375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E2">
         <v>7012345678</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1">
         <v>33013</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>39049</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3">
-        <v>39049</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E3">
+        <v>7012345678</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="G3" s="1">
+        <v>37185</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1">
+        <v>38709</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
         <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+  <dataValidations count="7">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>14611</formula1>
+      <formula2>TODAY()</formula2>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"BROTHER, SISTER, PASTOR, ELDER, DEACON, DEACONESS"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"MALE, FEMALE, OTHERS"</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 I2:I1048576">
-      <formula1>14611</formula1>
-      <formula2>TODAY()</formula2>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"YES, NO"</formula1>
@@ -601,36 +1424,99 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
+      <formula1>"PARENT,  CHILD, OTHER"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>CELLS!$A:$A</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" display="IKENSTEPH@GMAIL.COM"/>
+    <hyperlink ref="L2" r:id="rId2" display="IK@KC"/>
+    <hyperlink ref="D3" r:id="rId1" display="IKENSTEPH@GMAIL.COM"/>
+    <hyperlink ref="D4" r:id="rId3" display="SAMMY@MAIL.COM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>